--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_01.08.24_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2593 +505,3095 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731408181.396098</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731408184.6246011</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731408181.396098.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731408184.6246011.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.86</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.39</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4700000000000273</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731408196.437873</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731408196.437873.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731408196.437873.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.85</v>
       </c>
-      <c r="J4" t="n">
-        <v>288.85</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="L4" t="n">
+        <v>287.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731408204.0373414</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731408205.4744315</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408204.0373414.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408205.4744315.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>133.83</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>133.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.4300000000000068</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731408209.501785</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731408210.5134208</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408209.501785.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408210.5134208.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>132.91</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.59</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731408212.6929178</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731408214.8873227</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408212.6929178.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408214.8873227.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>132.74</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.35</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.6099999999999852</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731408218.9725287</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731408221.461526</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408218.9725287.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408221.461526.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>132.61</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>132.89</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.2799999999999727</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731408221.940428</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731408221.940428.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731408221.940428.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="L9" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.4000000000000057</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731408227.8336494</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731408228.378051</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408227.8336494.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408228.378051.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6770</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6755</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>15</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731408228.506862</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731408229.0114172</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408228.506862.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408229.0114172.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6740</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6749</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731408229.0254076</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731408229.2477334</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408229.0254076.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408229.2477334.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6749</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6754</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731408234.839561</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731408234.839561.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731408234.839561.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6720</v>
       </c>
-      <c r="J13" t="n">
-        <v>6720</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>6687</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-33</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731408251.1006017</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731408252.579654</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408251.1006017.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408252.579654.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>516.65</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>515.15</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731408258.994826</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731408258.994826.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731408258.994826.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>513</v>
       </c>
-      <c r="J15" t="n">
-        <v>513</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>506.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-6.199999999999989</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731408274.9425216</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731408276.519568</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408274.9425216.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408276.519568.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>233.13</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>233</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731408288.3757362</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731408288.3757362.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731408288.3757362.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>232.19</v>
       </c>
-      <c r="J17" t="n">
-        <v>232.19</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>229.85</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-2.340000000000003</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-1.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731408296.1445906</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731408300.3997574</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408296.1445906.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408300.3997574.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1048.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1045.4</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731408304.2247336</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731408304.7041888</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408304.2247336.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408304.7041888.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1039.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1042.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>3.199999999999818</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731408314.4781048</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731408314.4781048.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731408314.4781048.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1032.2</v>
       </c>
-      <c r="J20" t="n">
-        <v>1032.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1.600000000000136</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731408319.6414359</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731408320.8873153</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408319.6414359.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408320.8873153.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>130.4</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>129.44</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.960000000000008</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731408321.5056157</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731408330.4807203</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408321.5056157.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408330.4807203.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.32</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>129.62</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731408330.5830853</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731408332.4534705</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408330.5830853.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408332.4534705.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>129.92</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>129.54</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731408332.8483698</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731408332.8483698.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731408332.8483698.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>129.06</v>
       </c>
-      <c r="J24" t="n">
-        <v>129.06</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>128.64</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.4200000000000159</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731408342.6880727</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731408344.3654633</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731408342.6880727.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731408344.3654633.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>166.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>165.88</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731408358.172599</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731408358.172599.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731408358.172599.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>165.66</v>
       </c>
-      <c r="J26" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>164.66</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731408365.72678</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731408366.4098248</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408365.72678.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408366.4098248.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>50.985</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>50.81</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1749999999999972</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731408377.659736</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731408377.889325</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408377.659736.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408377.889325.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>50.795</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>50.955</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731408381.0926816</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731408382.4544022</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408381.0926816.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408382.4544022.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>50.74</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>50.87</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731408384.9994674</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731408384.9994674.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731408384.9994674.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>50.725</v>
       </c>
-      <c r="J30" t="n">
-        <v>50.725</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731408387.9854574</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731408388.2737293</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731408387.9854574.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731408388.2737293.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1417.4</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731408403.4910731</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731408403.4910731.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731408403.4910731.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1416</v>
       </c>
-      <c r="J32" t="n">
-        <v>1416</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="L32" t="n">
+        <v>1412.6</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-3.400000000000091</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731408411.4057462</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731408412.6540506</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408411.4057462.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408412.6540506.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>61.2</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>60.87</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.3300000000000054</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731408416.628712</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731408418.6792154</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408416.628712.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408418.6792154.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>61.29</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>61.31</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731408425.9494948</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731408425.9494948.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731408425.9494948.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>61.01</v>
       </c>
-      <c r="J35" t="n">
-        <v>61.01</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+      <c r="L35" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.3299999999999983</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731408434.5501897</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731408436.5757134</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408434.5501897.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408436.5757134.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>58.93</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>58.74</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731408441.9657664</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731408444.9882917</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408441.9657664.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408444.9882917.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>58.18</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>58.57</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.3900000000000006</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731408450.9787061</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731408450.9787061.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731408450.9787061.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>57.75</v>
       </c>
-      <c r="J38" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
+      <c r="L38" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.5499999999999972</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731408467.0399663</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731408468.8476524</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731408467.0399663.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731408468.8476524.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>145.8</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>145.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731408469.8386834</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731408469.8386834.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731408469.8386834.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>144.4</v>
       </c>
-      <c r="J40" t="n">
-        <v>144.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
+      <c r="L40" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-1.420000000000016</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.98</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731408480.3442874</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731408486.4009132</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731408480.3442874.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731408486.4009132.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>21.475</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>21.294</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.1810000000000009</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731408488.327623</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731408488.327623.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731408488.327623.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>21.141</v>
       </c>
-      <c r="J42" t="n">
-        <v>21.141</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
+      <c r="L42" t="n">
+        <v>20.831</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.3099999999999987</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731408509.481418</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731408509.481418.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731408509.481418.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>681.55</v>
       </c>
-      <c r="J43" t="n">
-        <v>681.55</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-2.349999999999909</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731408522.671505</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731408522.671505.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731408522.671505.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>379.23</v>
       </c>
-      <c r="J44" t="n">
-        <v>379.23</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
+      <c r="L44" t="n">
+        <v>378.22</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731408524.1066678</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731408524.4767272</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408524.1066678.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408524.4767272.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>0.0994</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>0.09976</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.0003599999999999992</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731408531.995797</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731408537.2536185</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408531.995797.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408537.2536185.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>0.10038</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.10052</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.0001400000000000012</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731408538.9565005</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731408538.9565005.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731408538.9565005.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>0.09992000000000001</v>
       </c>
-      <c r="J47" t="n">
-        <v>0.09992000000000001</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.0006400000000000156</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731408549.288911</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731408556.5757856</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731408549.288911.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731408556.5757856.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>0.6028</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.6041000000000001</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.001300000000000079</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731408558.5885534</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731408559.867689</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731408558.5885534.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731408559.867689.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>0.606</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.6048</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.001199999999999979</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731408563.7482152</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731408563.7482152.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731408563.7482152.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>0.6023000000000001</v>
       </c>
-      <c r="J50" t="n">
-        <v>0.6023000000000001</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
+      <c r="L50" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.001000000000000112</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731408568.423071</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731408570.0506465</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408568.423071.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408570.0506465.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>3036.2</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>3031.55</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>4.649999999999636</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731408570.3402908</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731408570.5204897</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408570.3402908.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408570.5204897.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>3028.3</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>3037.5</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>9.199999999999818</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731408570.981267</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731408573.3699691</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408570.981267.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408573.3699691.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>3028.25</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>3027.9</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.3499999999999091</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731408573.5037055</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731408575.0606418</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408573.5037055.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408575.0606418.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>3032.1</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>3026.95</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>5.150000000000091</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731408575.5970683</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731408575.847187</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408575.5970683.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408575.847187.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>3022</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>3026.9</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>4.900000000000091</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731408576.8132434</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731408578.863363</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408576.8132434.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408578.863363.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>3017.25</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>3020.15</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>2.900000000000091</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731408580.0393775</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731408581.948881</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408580.0393775.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408581.948881.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>3022.15</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>3022.15</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3084,278 +3601,332 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731408582.849899</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731408586.3091216</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408582.849899.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408586.3091216.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>3019.95</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>3007.6</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-12.34999999999991</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731408586.5935218</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731408591.0938044</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408586.5935218.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731408591.0938044.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>3004.3</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>2996.95</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-7.350000000000364</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731408591.306331</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731408591.306331.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731408591.306331.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>2996.65</v>
       </c>
-      <c r="J60" t="n">
-        <v>2996.65</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
+      <c r="L60" t="n">
+        <v>2996.05</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731408603.8780103</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731408606.178509</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731408603.8780103.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731408606.178509.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>34.61</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>34.935</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.3250000000000028</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731408606.1944857</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731408606.294628</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731408606.1944857.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731408606.294628.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>34.935</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>34.74</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1950000000000003</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731408607.256677</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731408607.256677.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731408607.256677.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>34.545</v>
       </c>
-      <c r="J63" t="n">
-        <v>34.545</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
+      <c r="L63" t="n">
+        <v>34.425</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3398,6 +3969,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3406,13 +3987,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.749999999999545</v>
+        <v>7.349999999999454</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6749999999999545</v>
+        <v>0.7349999999999455</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -3422,13 +4009,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.999999999999972</v>
+        <v>1.599999999999966</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3999999999999943</v>
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -3438,13 +4031,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.640000000000015</v>
+        <v>1.219999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4100000000000037</v>
+        <v>0.3049999999999997</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -3454,13 +4053,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>-14</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.75</v>
+        <v>-3.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6">
@@ -3470,13 +4075,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4649999999999892</v>
+        <v>0.3099999999999881</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1162499999999973</v>
+        <v>0.07749999999999702</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -3486,13 +4097,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5200000000000031</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1733333333333344</v>
+        <v>0.1333333333333329</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
@@ -3502,13 +4119,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5799999999999983</v>
+        <v>0.03000000000000114</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1933333333333328</v>
+        <v>0.01000000000000038</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04000000000000015</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -3518,13 +4141,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000219999999999998</v>
+        <v>-0.0004200000000000176</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>7.333333333333265e-05</v>
+        <v>-0.0001400000000000059</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="10">
@@ -3534,13 +4163,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002500000000000058</v>
+        <v>0.001499999999999946</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0008333333333333526</v>
+        <v>0.0004999999999999819</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
@@ -3550,13 +4185,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3100000000000023</v>
+        <v>-0.01999999999999602</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1033333333333341</v>
+        <v>-0.00666666666666534</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="12">
@@ -3566,13 +4207,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.199999999999818</v>
+        <v>4.599999999999682</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>2.066666666666606</v>
+        <v>1.533333333333227</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
@@ -3582,13 +4229,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1810000000000009</v>
+        <v>-0.1289999999999978</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09050000000000047</v>
+        <v>-0.06449999999999889</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="14">
@@ -3598,13 +4251,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6000000000000227</v>
+        <v>-0.8199999999999932</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3000000000000114</v>
+        <v>-0.4099999999999966</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="15">
@@ -3614,13 +4273,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4700000000000273</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2350000000000136</v>
+        <v>-0.3149999999999977</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="16">
@@ -3630,13 +4295,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1299999999999955</v>
+        <v>-2.210000000000008</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06499999999999773</v>
+        <v>-1.105000000000004</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="17">
@@ -3646,13 +4317,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.5</v>
+        <v>-4.699999999999989</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.75</v>
+        <v>-2.349999999999994</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.9199999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="18">
@@ -3662,13 +4339,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5200000000000102</v>
+        <v>-0.4799999999999898</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2600000000000051</v>
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="19">
@@ -3678,13 +4361,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>1.599999999999909</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="20">
@@ -3694,13 +4383,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-2.349999999999909</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-2.349999999999909</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="21">
@@ -3710,13 +4405,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.009999999999991</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.009999999999991</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="22">
@@ -3732,6 +4433,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
